--- a/Tables.xlsb.xlsx
+++ b/Tables.xlsb.xlsx
@@ -1,22 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SteveBrown\eclipse-workspace\SalarooUK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9239D295-5616-41C2-AA53-FD92E2DBB2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FC503A4-5267-4F4E-B9F1-E4EE018DFF8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -187,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -392,7 +385,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -586,19 +579,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038BCF56-9270-4E6A-A8EB-BA23FAE18AF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I28"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,88 +606,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
@@ -704,30 +679,30 @@
       </c>
       <c r="H6" t="s">
         <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1</v>
@@ -738,13 +713,14 @@
       <c r="F8" t="s">
         <v>47</v>
       </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>1</v>
@@ -758,10 +734,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1</v>
@@ -775,10 +751,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>1</v>
@@ -791,9 +767,11 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>1</v>
@@ -808,7 +786,7 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>1</v>
@@ -823,7 +801,7 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>1</v>
@@ -836,38 +814,36 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="4" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>1</v>
@@ -880,27 +856,29 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
@@ -910,11 +888,9 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>15</v>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>1</v>
@@ -928,10 +904,10 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>1</v>
@@ -944,12 +920,14 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
@@ -961,7 +939,7 @@
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -976,7 +954,7 @@
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
@@ -991,7 +969,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -1006,7 +984,7 @@
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
@@ -1019,32 +997,47 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>40</v>
       </c>
-      <c r="F27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
         <v>42</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:I28">
+  <sortState ref="B1:I28">
     <sortCondition ref="E1:E28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
